--- a/src/test/resources/testdata.xlsx
+++ b/src/test/resources/testdata.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/325477cd340eea00/Documents/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="16" documentId="8_{335884F5-1BAB-41C1-B9A2-56F4D1831E8B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1F07C0C9-E9D2-48B8-B187-0D26732AE0A7}"/>
+  <xr:revisionPtr revIDLastSave="1" documentId="8_{76FE0EE7-9404-4687-B0C1-771B634E39FA}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{1E54DD7A-376C-4300-B55B-FAB0F19A0CC2}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12456" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -48,13 +48,13 @@
     <t>Charley</t>
   </si>
   <si>
-    <t xml:space="preserve">Hanah </t>
-  </si>
-  <si>
     <t>Maria</t>
   </si>
   <si>
     <t>Priya</t>
+  </si>
+  <si>
+    <t>Hanah</t>
   </si>
 </sst>
 </file>
@@ -107,6 +107,10 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/persons/person.xml><?xml version="1.0" encoding="utf-8"?>
+<personList xmlns="http://schemas.microsoft.com/office/spreadsheetml/2018/threadedcomments" xmlns:x="http://schemas.openxmlformats.org/spreadsheetml/2006/main"/>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -375,7 +379,7 @@
   <dimension ref="A1:C5"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="K16" sqref="K16"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
@@ -415,10 +419,10 @@
     </row>
     <row r="4" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
+        <v>9</v>
+      </c>
+      <c r="B4" t="s">
         <v>7</v>
-      </c>
-      <c r="B4" t="s">
-        <v>8</v>
       </c>
       <c r="C4">
         <v>131</v>
@@ -426,7 +430,7 @@
     </row>
     <row r="5" spans="1:3" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="B5" t="s">
         <v>6</v>
